--- a/spitfire.xlsx
+++ b/spitfire.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Visual Studio 2013\Projects\CG-Tp1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>contorno msm</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>detalhe motor esq 2 ref</t>
+  </si>
+  <si>
+    <t>contorno total</t>
   </si>
 </sst>
 </file>
@@ -147,6 +150,1193 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$64:$E$116</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.4247787610619468E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.4247787610619468E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.8495575221238937E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.8495575221238937E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.4247787610619468E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.1946902654867249E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.8495575221238937E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.10619469026548671</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.75221238938053092</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.88495575221238931</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.97345132743362828</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.99115044247787598</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.92920353982300874</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.81415929203539816</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.54867256637168138</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.31858407079646017</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.11504424778761062</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.10619469026548671</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.0796460176991149E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-5.3097345132743355E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2831858407079646</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.26548672566371678</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-8.8495575221238937E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-4.4247787610619468E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.4247787610619468E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.8495575221238937E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.26548672566371678</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.2831858407079646</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.3097345132743355E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>7.0796460176991149E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.10619469026548671</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.11504424778761062</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.31858407079646017</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.54867256637168138</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.81415929203539816</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.92920353982300874</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.99115044247787598</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.97345132743362828</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.88495575221238931</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.75221238938053092</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.10619469026548671</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.8495575221238937E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.1946902654867249E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.4247787610619468E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>8.8495575221238937E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8.8495575221238937E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.4247787610619468E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.4247787610619468E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$64:$F$116</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="53"/>
+                <c:pt idx="0">
+                  <c:v>0.66371681415929196</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5752212389380531</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.53097345132743357</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53097345132743357</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46902654867256632</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.46902654867256632</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.39823008849557517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.39823008849557517</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35398230088495575</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35398230088495575</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.33628318584070793</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26548672566371678</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22123893805309733</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.17699115044247787</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11504424778761062</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.4247787610619468E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-3.5398230088495575E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-7.0796460176991149E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-8.8495575221238937E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.17699115044247787</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.48672566371681414</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.61946902654867253</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.73451327433628322</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.90265486725663702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.90265486725663702</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.88495575221238931</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.97345132743362828</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.88495575221238931</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.90265486725663702</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.90265486725663702</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.73451327433628322</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.61946902654867253</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.48672566371681414</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.17699115044247787</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-8.8495575221238937E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-7.0796460176991149E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-3.5398230088495575E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.4247787610619468E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.11504424778761062</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.17699115044247787</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.22123893805309733</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.26548672566371678</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.33628318584070793</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.35398230088495575</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.35398230088495575</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.39823008849557517</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.39823008849557517</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.46902654867256632</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.46902654867256632</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.53097345132743357</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.53097345132743357</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.5752212389380531</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.66371681415929196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="280705592"/>
+        <c:axId val="280705200"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="280705592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="280705200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="280705200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="280705592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,10 +1602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W69"/>
+  <dimension ref="A1:W116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" topLeftCell="D63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -986,7 +2176,7 @@
         <v>0.81568627450980391</v>
       </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B17" s="1">
         <v>-9.1999999999999993</v>
       </c>
@@ -1011,11 +2201,12 @@
       <c r="N17" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="P17" s="2"/>
       <c r="R17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>-6.2</v>
       </c>
@@ -1043,7 +2234,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>-3.6</v>
       </c>
@@ -1071,7 +2262,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="1">
         <v>-1.3</v>
       </c>
@@ -1087,7 +2278,7 @@
         <v>-8.8495575221238937E-2</v>
       </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>-1.2</v>
       </c>
@@ -1114,12 +2305,8 @@
       <c r="S21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="V21" s="1">
-        <f>1.3*10000</f>
-        <v>13000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>-0.8</v>
       </c>
@@ -1141,7 +2328,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>-0.6</v>
       </c>
@@ -1170,12 +2357,8 @@
         <f>I23/11.3</f>
         <v>0.35398230088495575</v>
       </c>
-      <c r="U23" s="1">
-        <f>U16/11.3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>-3.2</v>
       </c>
@@ -1205,7 +2388,7 @@
         <v>-8.8495575221238937E-2</v>
       </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>-3</v>
       </c>
@@ -1220,22 +2403,8 @@
         <f t="shared" si="0"/>
         <v>-0.90265486725663702</v>
       </c>
-      <c r="R25" s="1">
-        <v>-0.53097345132743357</v>
-      </c>
-      <c r="S25" s="1">
-        <v>0.17699115044247787</v>
-      </c>
-      <c r="U25" s="1">
-        <f>10000*R25</f>
-        <v>-5309.7345132743358</v>
-      </c>
-      <c r="V25" s="1">
-        <f>10000*S25</f>
-        <v>1769.9115044247787</v>
-      </c>
-    </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>-1</v>
       </c>
@@ -1256,12 +2425,8 @@
       <c r="K26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U26" s="1">
-        <f>0.8 * 10000</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>-0.5</v>
       </c>
@@ -1284,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>0</v>
       </c>
@@ -1306,12 +2471,8 @@
         <f t="shared" ref="K28:K29" si="3">H28/255</f>
         <v>0</v>
       </c>
-      <c r="R28" s="1">
-        <f>0.0707964601769911*10000</f>
-        <v>707.96460176991093</v>
-      </c>
-    </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E29" s="1">
         <v>4.4247787610619468E-2</v>
       </c>
@@ -1326,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E30" s="1">
         <v>8.8495575221238937E-2</v>
       </c>
@@ -1334,19 +2495,15 @@
         <v>-0.90265486725663702</v>
       </c>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E31" s="1">
         <v>0.26548672566371678</v>
       </c>
       <c r="F31" s="1">
         <v>-0.90265486725663702</v>
       </c>
-      <c r="U31" s="1">
-        <f>0.115044247787611*10000</f>
-        <v>1150.4424778761102</v>
-      </c>
-    </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="E32" s="1">
         <v>0.2831858407079646</v>
       </c>
@@ -1354,7 +2511,7 @@
         <v>-0.73451327433628322</v>
       </c>
     </row>
-    <row r="33" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33" s="1">
         <v>5.3097345132743355E-2</v>
       </c>
@@ -1362,7 +2519,7 @@
         <v>-0.61946902654867253</v>
       </c>
     </row>
-    <row r="34" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34" s="1">
         <v>7.0796460176991149E-2</v>
       </c>
@@ -1370,35 +2527,23 @@
         <v>-0.48672566371681414</v>
       </c>
     </row>
-    <row r="35" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35" s="1">
         <v>0.10619469026548671</v>
       </c>
       <c r="F35" s="1">
         <v>-0.17699115044247787</v>
       </c>
-      <c r="R35" s="1">
-        <v>-1.3</v>
-      </c>
-      <c r="S35" s="1">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="36" spans="5:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36" s="1">
         <v>0.11504424778761062</v>
       </c>
       <c r="F36" s="1">
         <v>-8.8495575221238937E-2</v>
       </c>
-      <c r="R36" s="1">
-        <v>-2</v>
-      </c>
-      <c r="S36" s="1">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="37" spans="5:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37" s="1">
         <v>0.31858407079646017</v>
       </c>
@@ -1406,39 +2551,23 @@
         <v>-7.0796460176991149E-2</v>
       </c>
     </row>
-    <row r="38" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E38" s="1">
         <v>0.54867256637168138</v>
       </c>
       <c r="F38" s="1">
         <v>-3.5398230088495575E-2</v>
       </c>
-      <c r="U38" s="1">
-        <f>884.956*R35</f>
-        <v>-1150.4428</v>
-      </c>
-      <c r="V38" s="1">
-        <f>884.956*S35</f>
-        <v>5132.7448000000004</v>
-      </c>
-    </row>
-    <row r="39" spans="5:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E39" s="1">
         <v>0.81415929203539816</v>
       </c>
       <c r="F39" s="1">
         <v>4.4247787610619468E-2</v>
       </c>
-      <c r="U39" s="1">
-        <f>884.956*R36</f>
-        <v>-1769.912</v>
-      </c>
-      <c r="V39" s="1">
-        <f>884.956*S36</f>
-        <v>5132.7448000000004</v>
-      </c>
-    </row>
-    <row r="40" spans="5:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E40" s="1">
         <v>0.92920353982300874</v>
       </c>
@@ -1446,7 +2575,7 @@
         <v>0.11504424778761062</v>
       </c>
     </row>
-    <row r="41" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E41" s="1">
         <v>0.99115044247787598</v>
       </c>
@@ -1454,7 +2583,7 @@
         <v>0.17699115044247787</v>
       </c>
     </row>
-    <row r="42" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E42" s="1">
         <v>1</v>
       </c>
@@ -1462,7 +2591,7 @@
         <v>0.22123893805309733</v>
       </c>
     </row>
-    <row r="43" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E43" s="1">
         <v>0.97345132743362828</v>
       </c>
@@ -1470,142 +2599,44 @@
         <v>0.26548672566371678</v>
       </c>
     </row>
-    <row r="44" spans="5:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E44" s="1">
         <v>0.88495575221238931</v>
       </c>
       <c r="F44" s="1">
         <v>0.33628318584070793</v>
       </c>
-      <c r="L44" s="1">
-        <v>0</v>
-      </c>
-      <c r="M44" s="1">
-        <v>8.8495575221238937E-2</v>
-      </c>
-      <c r="O44" s="1">
-        <f>10000*L44</f>
-        <v>0</v>
-      </c>
-      <c r="P44" s="1">
-        <f>10000*M44</f>
-        <v>884.95575221238937</v>
-      </c>
-    </row>
-    <row r="45" spans="5:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E45" s="1">
         <v>0.75221238938053092</v>
       </c>
       <c r="F45" s="1">
         <v>0.35398230088495575</v>
       </c>
-      <c r="L45" s="1">
-        <v>-4.4247787610619468E-2</v>
-      </c>
-      <c r="M45" s="1">
-        <v>8.8495575221238937E-2</v>
-      </c>
-      <c r="O45" s="1">
-        <f t="shared" ref="O45:O54" si="4">10000*L45</f>
-        <v>-442.47787610619469</v>
-      </c>
-      <c r="P45" s="1">
-        <f t="shared" ref="P45:P54" si="5">10000*M45</f>
-        <v>884.95575221238937</v>
-      </c>
-    </row>
-    <row r="46" spans="5:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E46" s="1">
         <v>0.10619469026548671</v>
       </c>
       <c r="F46" s="1">
         <v>0.35398230088495575</v>
       </c>
-      <c r="L46" s="1">
-        <v>-6.6371681415929196E-2</v>
-      </c>
-      <c r="M46" s="1">
-        <v>5.3097345132743355E-2</v>
-      </c>
-      <c r="O46" s="1">
-        <f t="shared" si="4"/>
-        <v>-663.71681415929197</v>
-      </c>
-      <c r="P46" s="1">
-        <f t="shared" si="5"/>
-        <v>530.97345132743351</v>
-      </c>
-    </row>
-    <row r="47" spans="5:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E47" s="1">
         <v>8.8495575221238937E-2</v>
       </c>
       <c r="F47" s="1">
         <v>0.39823008849557517</v>
       </c>
-      <c r="L47" s="1">
-        <v>-6.6371681415929196E-2</v>
-      </c>
-      <c r="M47" s="1">
-        <v>0</v>
-      </c>
-      <c r="O47" s="1">
-        <f t="shared" si="4"/>
-        <v>-663.71681415929197</v>
-      </c>
-      <c r="P47" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S47" s="1">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="T47" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="V47" s="1">
-        <f>884.956*S47</f>
-        <v>-2035.3987999999999</v>
-      </c>
-      <c r="W47" s="1">
-        <f>884.956*T47</f>
-        <v>5132.7448000000004</v>
-      </c>
-    </row>
-    <row r="48" spans="5:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E48" s="1">
         <v>6.1946902654867249E-2</v>
       </c>
       <c r="F48" s="1">
         <v>0.39823008849557517</v>
-      </c>
-      <c r="L48" s="1">
-        <v>-6.6371681415929196E-2</v>
-      </c>
-      <c r="M48" s="1">
-        <v>-7.9646017699115043E-2</v>
-      </c>
-      <c r="O48" s="1">
-        <f t="shared" si="4"/>
-        <v>-663.71681415929197</v>
-      </c>
-      <c r="P48" s="1">
-        <f t="shared" si="5"/>
-        <v>-796.46017699115043</v>
-      </c>
-      <c r="S48" s="1">
-        <v>-3</v>
-      </c>
-      <c r="T48" s="1">
-        <v>5.8</v>
-      </c>
-      <c r="V48" s="1">
-        <f>884.956*S48</f>
-        <v>-2654.8679999999999</v>
-      </c>
-      <c r="W48" s="1">
-        <f>884.956*T48</f>
-        <v>5132.7448000000004</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
@@ -1615,20 +2646,6 @@
       <c r="F49" s="1">
         <v>0.46902654867256632</v>
       </c>
-      <c r="L49" s="1">
-        <v>0</v>
-      </c>
-      <c r="M49" s="1">
-        <v>-7.9646017699115043E-2</v>
-      </c>
-      <c r="O49" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="1">
-        <f t="shared" si="5"/>
-        <v>-796.46017699115043</v>
-      </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E50" s="1">
@@ -1637,20 +2654,6 @@
       <c r="F50" s="1">
         <v>0.46902654867256632</v>
       </c>
-      <c r="L50" s="1">
-        <v>6.6371681415929196E-2</v>
-      </c>
-      <c r="M50" s="1">
-        <v>-7.9646017699115043E-2</v>
-      </c>
-      <c r="O50" s="1">
-        <f t="shared" si="4"/>
-        <v>663.71681415929197</v>
-      </c>
-      <c r="P50" s="1">
-        <f t="shared" si="5"/>
-        <v>-796.46017699115043</v>
-      </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E51" s="1">
@@ -1659,20 +2662,6 @@
       <c r="F51" s="1">
         <v>0.53097345132743357</v>
       </c>
-      <c r="L51" s="1">
-        <v>6.6371681415929196E-2</v>
-      </c>
-      <c r="M51" s="1">
-        <v>0</v>
-      </c>
-      <c r="O51" s="1">
-        <f t="shared" si="4"/>
-        <v>663.71681415929197</v>
-      </c>
-      <c r="P51" s="1">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E52" s="1">
@@ -1681,20 +2670,6 @@
       <c r="F52" s="1">
         <v>0.53097345132743357</v>
       </c>
-      <c r="L52" s="1">
-        <v>6.6371681415929196E-2</v>
-      </c>
-      <c r="M52" s="1">
-        <v>5.3097345132743355E-2</v>
-      </c>
-      <c r="O52" s="1">
-        <f t="shared" si="4"/>
-        <v>663.71681415929197</v>
-      </c>
-      <c r="P52" s="1">
-        <f t="shared" si="5"/>
-        <v>530.97345132743351</v>
-      </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E53" s="1">
@@ -1703,20 +2678,6 @@
       <c r="F53" s="1">
         <v>0.5752212389380531</v>
       </c>
-      <c r="L53" s="1">
-        <v>4.4247787610619468E-2</v>
-      </c>
-      <c r="M53" s="1">
-        <v>8.8495575221238937E-2</v>
-      </c>
-      <c r="O53" s="1">
-        <f t="shared" si="4"/>
-        <v>442.47787610619469</v>
-      </c>
-      <c r="P53" s="1">
-        <f t="shared" si="5"/>
-        <v>884.95575221238937</v>
-      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="E54" s="1">
@@ -1724,20 +2685,6 @@
       </c>
       <c r="F54" s="1">
         <v>0.66371681415929196</v>
-      </c>
-      <c r="L54" s="1">
-        <v>0</v>
-      </c>
-      <c r="M54" s="1">
-        <v>8.8495575221238937E-2</v>
-      </c>
-      <c r="O54" s="1">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P54" s="1">
-        <f t="shared" si="5"/>
-        <v>884.95575221238937</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
@@ -1775,71 +2722,434 @@
         <v>0.25490196078431371</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K61" s="1">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E63" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0.66371681415929196</v>
+      </c>
+      <c r="R64" s="2"/>
+    </row>
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E65" s="1">
+        <v>-4.4247787610619468E-2</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0.5752212389380531</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E66" s="1">
+        <v>-4.4247787610619468E-2</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0.53097345132743357</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E67" s="1">
+        <v>-8.8495575221238937E-2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0.53097345132743357</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E68" s="1">
+        <v>-8.8495575221238937E-2</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0.46902654867256632</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E69" s="1">
+        <v>-4.4247787610619468E-2</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0.46902654867256632</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E70" s="1">
+        <v>-6.1946902654867249E-2</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0.39823008849557517</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E71" s="1">
+        <v>-8.8495575221238937E-2</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0.39823008849557517</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E72" s="1">
         <v>-0.10619469026548671</v>
       </c>
-      <c r="L61" s="1">
+      <c r="F72" s="1">
         <v>0.35398230088495575</v>
       </c>
-      <c r="N61" s="1">
-        <f>10000*K61</f>
-        <v>-1061.946902654867</v>
-      </c>
-      <c r="O61" s="1">
-        <f>10000*L61</f>
-        <v>3539.8230088495575</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="K62" s="1">
+    </row>
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E73" s="1">
+        <v>-0.75221238938053092</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0.35398230088495575</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E74" s="1">
+        <v>-0.88495575221238931</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0.33628318584070793</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E75" s="1">
+        <v>-0.97345132743362828</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0.26548672566371678</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E76" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0.22123893805309733</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E77" s="1">
+        <v>-0.99115044247787598</v>
+      </c>
+      <c r="F77" s="1">
+        <v>0.17699115044247787</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E78" s="1">
+        <v>-0.92920353982300874</v>
+      </c>
+      <c r="F78" s="1">
+        <v>0.11504424778761062</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E79" s="1">
+        <v>-0.81415929203539816</v>
+      </c>
+      <c r="F79" s="1">
+        <v>4.4247787610619468E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E80" s="1">
+        <v>-0.54867256637168138</v>
+      </c>
+      <c r="F80" s="1">
+        <v>-3.5398230088495575E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="1">
+        <v>-0.31858407079646017</v>
+      </c>
+      <c r="F81" s="1">
+        <v>-7.0796460176991149E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E82" s="1">
         <v>-0.11504424778761062</v>
       </c>
-      <c r="L62" s="1">
+      <c r="F82" s="1">
         <v>-8.8495575221238937E-2</v>
       </c>
-      <c r="N62" s="1">
-        <f>10000*K62</f>
-        <v>-1150.4424778761061</v>
-      </c>
-      <c r="O62" s="1">
-        <f>10000*L62</f>
-        <v>-884.95575221238937</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="R64" s="2"/>
-    </row>
-    <row r="68" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K68" s="1">
-        <v>0</v>
-      </c>
-      <c r="L68" s="1">
-        <v>-0.63716814159292035</v>
-      </c>
-      <c r="N68" s="1">
-        <f>10000*K68</f>
-        <v>0</v>
-      </c>
-      <c r="O68" s="1">
-        <f>10000*L68</f>
-        <v>-6371.6814159292035</v>
-      </c>
-    </row>
-    <row r="69" spans="11:15" x14ac:dyDescent="0.25">
-      <c r="K69" s="1">
-        <v>0</v>
-      </c>
-      <c r="L69" s="1">
-        <v>-0.96460176991150437</v>
-      </c>
-      <c r="N69" s="1">
-        <f>10000*K69</f>
-        <v>0</v>
-      </c>
-      <c r="O69" s="1">
-        <f>10000*L69</f>
-        <v>-9646.0176991150438</v>
+    </row>
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E83" s="1">
+        <v>-0.10619469026548671</v>
+      </c>
+      <c r="F83" s="1">
+        <v>-0.17699115044247787</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E84" s="1">
+        <v>-7.0796460176991149E-2</v>
+      </c>
+      <c r="F84" s="1">
+        <v>-0.48672566371681414</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E85" s="1">
+        <v>-5.3097345132743355E-2</v>
+      </c>
+      <c r="F85" s="1">
+        <v>-0.61946902654867253</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E86" s="1">
+        <v>-0.2831858407079646</v>
+      </c>
+      <c r="F86" s="1">
+        <v>-0.73451327433628322</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E87" s="1">
+        <v>-0.26548672566371678</v>
+      </c>
+      <c r="F87" s="1">
+        <v>-0.90265486725663702</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E88" s="1">
+        <v>-8.8495575221238937E-2</v>
+      </c>
+      <c r="F88" s="1">
+        <v>-0.90265486725663702</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E89" s="1">
+        <v>-4.4247787610619468E-2</v>
+      </c>
+      <c r="F89" s="1">
+        <v>-0.88495575221238931</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+      <c r="F90" s="1">
+        <v>-0.97345132743362828</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E91" s="1">
+        <v>4.4247787610619468E-2</v>
+      </c>
+      <c r="F91" s="1">
+        <v>-0.88495575221238931</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E92" s="1">
+        <v>8.8495575221238937E-2</v>
+      </c>
+      <c r="F92" s="1">
+        <v>-0.90265486725663702</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E93" s="1">
+        <v>0.26548672566371678</v>
+      </c>
+      <c r="F93" s="1">
+        <v>-0.90265486725663702</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E94" s="1">
+        <v>0.2831858407079646</v>
+      </c>
+      <c r="F94" s="1">
+        <v>-0.73451327433628322</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E95" s="1">
+        <v>5.3097345132743355E-2</v>
+      </c>
+      <c r="F95" s="1">
+        <v>-0.61946902654867253</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E96" s="1">
+        <v>7.0796460176991149E-2</v>
+      </c>
+      <c r="F96" s="1">
+        <v>-0.48672566371681414</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E97" s="1">
+        <v>0.10619469026548671</v>
+      </c>
+      <c r="F97" s="1">
+        <v>-0.17699115044247787</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E98" s="1">
+        <v>0.11504424778761062</v>
+      </c>
+      <c r="F98" s="1">
+        <v>-8.8495575221238937E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E99" s="1">
+        <v>0.31858407079646017</v>
+      </c>
+      <c r="F99" s="1">
+        <v>-7.0796460176991149E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E100" s="1">
+        <v>0.54867256637168138</v>
+      </c>
+      <c r="F100" s="1">
+        <v>-3.5398230088495575E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E101" s="1">
+        <v>0.81415929203539816</v>
+      </c>
+      <c r="F101" s="1">
+        <v>4.4247787610619468E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E102" s="1">
+        <v>0.92920353982300874</v>
+      </c>
+      <c r="F102" s="1">
+        <v>0.11504424778761062</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="1">
+        <v>0.99115044247787598</v>
+      </c>
+      <c r="F103" s="1">
+        <v>0.17699115044247787</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1">
+        <v>0.22123893805309733</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E105" s="1">
+        <v>0.97345132743362828</v>
+      </c>
+      <c r="F105" s="1">
+        <v>0.26548672566371678</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E106" s="1">
+        <v>0.88495575221238931</v>
+      </c>
+      <c r="F106" s="1">
+        <v>0.33628318584070793</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E107" s="1">
+        <v>0.75221238938053092</v>
+      </c>
+      <c r="F107" s="1">
+        <v>0.35398230088495575</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E108" s="1">
+        <v>0.10619469026548671</v>
+      </c>
+      <c r="F108" s="1">
+        <v>0.35398230088495575</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E109" s="1">
+        <v>8.8495575221238937E-2</v>
+      </c>
+      <c r="F109" s="1">
+        <v>0.39823008849557517</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E110" s="1">
+        <v>6.1946902654867249E-2</v>
+      </c>
+      <c r="F110" s="1">
+        <v>0.39823008849557517</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E111" s="1">
+        <v>4.4247787610619468E-2</v>
+      </c>
+      <c r="F111" s="1">
+        <v>0.46902654867256632</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E112" s="1">
+        <v>8.8495575221238937E-2</v>
+      </c>
+      <c r="F112" s="1">
+        <v>0.46902654867256632</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E113" s="1">
+        <v>8.8495575221238937E-2</v>
+      </c>
+      <c r="F113" s="1">
+        <v>0.53097345132743357</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E114" s="1">
+        <v>4.4247787610619468E-2</v>
+      </c>
+      <c r="F114" s="1">
+        <v>0.53097345132743357</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E115" s="1">
+        <v>4.4247787610619468E-2</v>
+      </c>
+      <c r="F115" s="1">
+        <v>0.5752212389380531</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E116" s="1">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1">
+        <v>0.66371681415929196</v>
       </c>
     </row>
   </sheetData>
@@ -1848,6 +3158,7 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/spitfire.xlsx
+++ b/spitfire.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>contorno msm</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>contorno total</t>
+  </si>
+  <si>
+    <t>cabine</t>
+  </si>
+  <si>
+    <t>detalhe asa esq</t>
+  </si>
+  <si>
+    <t>cauda</t>
+  </si>
+  <si>
+    <t>detalhe motor esq msm</t>
+  </si>
+  <si>
+    <t>detalhe motor esq</t>
   </si>
 </sst>
 </file>
@@ -576,11 +591,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="280705592"/>
-        <c:axId val="280705200"/>
+        <c:axId val="254712656"/>
+        <c:axId val="254716184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="280705592"/>
+        <c:axId val="254712656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -637,12 +652,12 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280705200"/>
+        <c:crossAx val="254716184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="280705200"/>
+        <c:axId val="254716184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -699,7 +714,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280705592"/>
+        <c:crossAx val="254712656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1604,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E90" sqref="E90"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1614,8 +1629,10 @@
     <col min="6" max="6" width="9.140625" style="1" customWidth="1"/>
     <col min="7" max="13" width="9.140625" style="1"/>
     <col min="14" max="15" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="20" width="9.140625" style="1"/>
-    <col min="21" max="21" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" style="1"/>
+    <col min="20" max="21" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="16384" width="9.140625" style="1"/>
@@ -2511,103 +2528,403 @@
         <v>-0.73451327433628322</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E33" s="1">
         <v>5.3097345132743355E-2</v>
       </c>
       <c r="F33" s="1">
         <v>-0.61946902654867253</v>
       </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="I33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E34" s="1">
         <v>7.0796460176991149E-2</v>
       </c>
       <c r="F34" s="1">
         <v>-0.48672566371681414</v>
       </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>8.8495575221238937E-2</v>
+      </c>
+      <c r="K34" s="1">
+        <f>10000*I34</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="1">
+        <f>10000*J34</f>
+        <v>884.95575221238937</v>
+      </c>
+      <c r="N34" s="1">
+        <v>-0.10619469026548671</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.35398230088495575</v>
+      </c>
+      <c r="P34" s="1">
+        <f>10000*N34</f>
+        <v>-1061.946902654867</v>
+      </c>
+      <c r="Q34" s="1">
+        <f>10000*O34</f>
+        <v>3539.8230088495575</v>
+      </c>
+      <c r="T34" s="1">
+        <v>-0.53097345132743357</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0.17699115044247787</v>
+      </c>
+      <c r="V34" s="1">
+        <f>10000*T34</f>
+        <v>-5309.7345132743358</v>
+      </c>
+      <c r="W34" s="1">
+        <f>10000*U34</f>
+        <v>1769.9115044247787</v>
+      </c>
+    </row>
+    <row r="35" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E35" s="1">
         <v>0.10619469026548671</v>
       </c>
       <c r="F35" s="1">
         <v>-0.17699115044247787</v>
       </c>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <v>-4.4247787610619468E-2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>8.8495575221238937E-2</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" ref="K35:K44" si="4">10000*I35</f>
+        <v>-442.47787610619469</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" ref="L35:L44" si="5">10000*J35</f>
+        <v>884.95575221238937</v>
+      </c>
+      <c r="N35" s="1">
+        <v>-0.11504424778761062</v>
+      </c>
+      <c r="O35" s="1">
+        <v>-8.8495575221238937E-2</v>
+      </c>
+      <c r="P35" s="1">
+        <f>10000*N35</f>
+        <v>-1150.4424778761061</v>
+      </c>
+      <c r="Q35" s="1">
+        <f>10000*O35</f>
+        <v>-884.95575221238937</v>
+      </c>
+      <c r="T35" s="1">
+        <v>7.0796460176991094E-2</v>
+      </c>
+      <c r="U35" s="1">
+        <f>10000*T35</f>
+        <v>707.96460176991093</v>
+      </c>
+    </row>
+    <row r="36" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E36" s="1">
         <v>0.11504424778761062</v>
       </c>
       <c r="F36" s="1">
         <v>-8.8495575221238937E-2</v>
       </c>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="I36" s="1">
+        <v>-6.6371681415929196E-2</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5.3097345132743355E-2</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="4"/>
+        <v>-663.71681415929197</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" si="5"/>
+        <v>530.97345132743351</v>
+      </c>
+    </row>
+    <row r="37" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E37" s="1">
         <v>0.31858407079646017</v>
       </c>
       <c r="F37" s="1">
         <v>-7.0796460176991149E-2</v>
       </c>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="I37" s="1">
+        <v>-6.6371681415929196E-2</v>
+      </c>
+      <c r="J37" s="1">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="4"/>
+        <v>-663.71681415929197</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T37" s="1">
+        <v>0.11504424778761062</v>
+      </c>
+      <c r="U37" s="1">
+        <f>10000*T37</f>
+        <v>1150.4424778761061</v>
+      </c>
+    </row>
+    <row r="38" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E38" s="1">
         <v>0.54867256637168138</v>
       </c>
       <c r="F38" s="1">
         <v>-3.5398230088495575E-2</v>
       </c>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="I38" s="1">
+        <v>-6.6371681415929196E-2</v>
+      </c>
+      <c r="J38" s="1">
+        <v>-7.9646017699115043E-2</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="4"/>
+        <v>-663.71681415929197</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="5"/>
+        <v>-796.46017699115043</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E39" s="1">
         <v>0.81415929203539816</v>
       </c>
       <c r="F39" s="1">
         <v>4.4247787610619468E-2</v>
       </c>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>-7.9646017699115043E-2</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="5"/>
+        <v>-796.46017699115043</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>-0.63716814159292035</v>
+      </c>
+      <c r="P39" s="1">
+        <f>10000*N39</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1">
+        <f>10000*O39</f>
+        <v>-6371.6814159292035</v>
+      </c>
+    </row>
+    <row r="40" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E40" s="1">
         <v>0.92920353982300874</v>
       </c>
       <c r="F40" s="1">
         <v>0.11504424778761062</v>
       </c>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="I40" s="1">
+        <v>6.6371681415929196E-2</v>
+      </c>
+      <c r="J40" s="1">
+        <v>-7.9646017699115043E-2</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="4"/>
+        <v>663.71681415929197</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" si="5"/>
+        <v>-796.46017699115043</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>-0.96460176991150437</v>
+      </c>
+      <c r="P40" s="1">
+        <f>10000*N40</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1">
+        <f>10000*O40</f>
+        <v>-9646.0176991150438</v>
+      </c>
+    </row>
+    <row r="41" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E41" s="1">
         <v>0.99115044247787598</v>
       </c>
       <c r="F41" s="1">
         <v>0.17699115044247787</v>
       </c>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="I41" s="1">
+        <v>6.6371681415929196E-2</v>
+      </c>
+      <c r="J41" s="1">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="4"/>
+        <v>663.71681415929197</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E42" s="1">
         <v>1</v>
       </c>
       <c r="F42" s="1">
         <v>0.22123893805309733</v>
       </c>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="I42" s="1">
+        <v>6.6371681415929196E-2</v>
+      </c>
+      <c r="J42" s="1">
+        <v>5.3097345132743355E-2</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="4"/>
+        <v>663.71681415929197</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" si="5"/>
+        <v>530.97345132743351</v>
+      </c>
+      <c r="N42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E43" s="1">
         <v>0.97345132743362828</v>
       </c>
       <c r="F43" s="1">
         <v>0.26548672566371678</v>
       </c>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="I43" s="1">
+        <v>4.4247787610619468E-2</v>
+      </c>
+      <c r="J43" s="1">
+        <v>8.8495575221238937E-2</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="4"/>
+        <v>442.47787610619469</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" si="5"/>
+        <v>884.95575221238937</v>
+      </c>
+      <c r="N43" s="1">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="O43" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="Q43" s="1">
+        <f>N43/11.3</f>
+        <v>-0.20353982300884954</v>
+      </c>
+      <c r="R43" s="1">
+        <f>O43/11.3</f>
+        <v>0.51327433628318575</v>
+      </c>
+      <c r="T43" s="1">
+        <f>10000*Q43</f>
+        <v>-2035.3982300884954</v>
+      </c>
+      <c r="U43" s="1">
+        <f>10000*R43</f>
+        <v>5132.7433628318577</v>
+      </c>
+    </row>
+    <row r="44" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E44" s="1">
         <v>0.88495575221238931</v>
       </c>
       <c r="F44" s="1">
         <v>0.33628318584070793</v>
       </c>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>8.8495575221238937E-2</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" si="5"/>
+        <v>884.95575221238937</v>
+      </c>
+      <c r="N44" s="1">
+        <v>-3</v>
+      </c>
+      <c r="O44" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="Q44" s="1">
+        <f>N44/11.3</f>
+        <v>-0.26548672566371678</v>
+      </c>
+      <c r="R44" s="1">
+        <f>O44/11.3</f>
+        <v>0.51327433628318575</v>
+      </c>
+      <c r="T44" s="1">
+        <f>10000*Q44</f>
+        <v>-2654.8672566371679</v>
+      </c>
+      <c r="U44" s="1">
+        <f>10000*R44</f>
+        <v>5132.7433628318577</v>
+      </c>
+    </row>
+    <row r="45" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E45" s="1">
         <v>0.75221238938053092</v>
       </c>
@@ -2615,28 +2932,81 @@
         <v>0.35398230088495575</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E46" s="1">
         <v>0.10619469026548671</v>
       </c>
       <c r="F46" s="1">
         <v>0.35398230088495575</v>
       </c>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="N46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E47" s="1">
         <v>8.8495575221238937E-2</v>
       </c>
       <c r="F47" s="1">
         <v>0.39823008849557517</v>
       </c>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="N47" s="1">
+        <v>-1.3</v>
+      </c>
+      <c r="O47" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="Q47" s="1">
+        <f>N47/11.3</f>
+        <v>-0.11504424778761062</v>
+      </c>
+      <c r="R47" s="1">
+        <f>O47/11.3</f>
+        <v>0.51327433628318575</v>
+      </c>
+      <c r="T47" s="1">
+        <f>10000*Q47</f>
+        <v>-1150.4424778761061</v>
+      </c>
+      <c r="U47" s="1">
+        <f>10000*R47</f>
+        <v>5132.7433628318577</v>
+      </c>
+    </row>
+    <row r="48" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E48" s="1">
         <v>6.1946902654867249E-2</v>
       </c>
       <c r="F48" s="1">
         <v>0.39823008849557517</v>
+      </c>
+      <c r="N48" s="1">
+        <v>-2</v>
+      </c>
+      <c r="O48" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="Q48" s="1">
+        <f>N48/11.3</f>
+        <v>-0.17699115044247787</v>
+      </c>
+      <c r="R48" s="1">
+        <f>O48/11.3</f>
+        <v>0.51327433628318575</v>
+      </c>
+      <c r="T48" s="1">
+        <f>10000*Q48</f>
+        <v>-1769.9115044247787</v>
+      </c>
+      <c r="U48" s="1">
+        <f>10000*R48</f>
+        <v>5132.7433628318577</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
